--- a/xls_config/xlsx/SuperBossItem.xlsx
+++ b/xls_config/xlsx/SuperBossItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12630"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -42,25 +42,16 @@
   <si>
     <t>黑熊妖皇</t>
   </si>
-  <si>
-    <t>黑熊妖皇1</t>
-  </si>
-  <si>
-    <t>黑熊妖皇2</t>
-  </si>
-  <si>
-    <t>黑熊妖皇3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,22 +63,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,20 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -130,86 +190,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,17 +409,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,21 +425,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,22 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +482,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,16 +526,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,115 +544,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,13 +979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1036,48 +1027,6 @@
       </c>
       <c r="D3">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>6601</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>6602</v>
-      </c>
-      <c r="D5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>6603</v>
-      </c>
-      <c r="D6">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/SuperBossItem.xlsx
+++ b/xls_config/xlsx/SuperBossItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>rewards</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -40,7 +43,13 @@
     <t>分身数量</t>
   </si>
   <si>
+    <t>奖励</t>
+  </si>
+  <si>
     <t>黑熊妖皇</t>
+  </si>
+  <si>
+    <t>经验#200|道行#200</t>
   </si>
 </sst>
 </file>
@@ -49,8 +58,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -77,15 +86,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,113 +214,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,25 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,157 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,80 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,8 +436,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,15 +988,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="85" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,33 +1012,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>6600</v>
       </c>
       <c r="D3">
         <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/SuperBossItem.xlsx
+++ b/xls_config/xlsx/SuperBossItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -49,7 +49,25 @@
     <t>黑熊妖皇</t>
   </si>
   <si>
-    <t>经验#200|道行#200</t>
+    <t>经验#200|道行#200|物品#风寂云清,雷极弧光</t>
+  </si>
+  <si>
+    <t>赤血鬼猿</t>
+  </si>
+  <si>
+    <t>经验#200|道行#201|物品#风寂云清,雷极弧光</t>
+  </si>
+  <si>
+    <t>魅影蝎后</t>
+  </si>
+  <si>
+    <t>经验#200|道行#202|物品#风寂云清,雷极弧光</t>
+  </si>
+  <si>
+    <t>血炼魔猪</t>
+  </si>
+  <si>
+    <t>经验#200|道行#203|物品#风寂云清,雷极弧光</t>
   </si>
 </sst>
 </file>
@@ -58,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -72,6 +90,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -79,44 +120,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,81 +179,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,37 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,145 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +433,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,65 +533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="85" customWidth="1"/>
   </cols>
@@ -1050,6 +1068,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6604</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>6605</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>6603</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/xls_config/xlsx/SuperBossItem.xlsx
+++ b/xls_config/xlsx/SuperBossItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>xiaoGuai</t>
+  </si>
+  <si>
     <t>rewards</t>
   </si>
   <si>
@@ -43,10 +46,16 @@
     <t>分身数量</t>
   </si>
   <si>
+    <t>小怪列表：加上主怪不得超过10个</t>
+  </si>
+  <si>
     <t>奖励</t>
   </si>
   <si>
     <t>黑熊妖皇</t>
+  </si>
+  <si>
+    <t>玄武,玄武,玄武,玄武,玄武,玄武,玄武,玄武,玄武</t>
   </si>
   <si>
     <t>经验#200|道行#200|物品#风寂云清,雷极弧光</t>
@@ -75,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -90,6 +99,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,7 +114,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +167,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,11 +195,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,97 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,37 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,108 +413,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,36 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,25 +445,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -475,6 +471,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -486,10 +497,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,16 +528,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -541,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,18 +1015,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="85" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,30 +1043,36 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>6600</v>
@@ -1065,15 +1081,18 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>6604</v>
@@ -1084,13 +1103,16 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>6605</v>
@@ -1099,15 +1121,18 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>6603</v>
@@ -1116,7 +1141,10 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/xls_config/xlsx/SuperBossItem.xlsx
+++ b/xls_config/xlsx/SuperBossItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,15 @@
     <t>rewards</t>
   </si>
   <si>
+    <t>dlgContent</t>
+  </si>
+  <si>
+    <t>startButtonTip</t>
+  </si>
+  <si>
+    <t>exitButtonTip</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -52,6 +61,15 @@
     <t>奖励</t>
   </si>
   <si>
+    <t>对话框的话</t>
+  </si>
+  <si>
+    <t>开始挑战的按钮</t>
+  </si>
+  <si>
+    <t>离开的按钮</t>
+  </si>
+  <si>
     <t>黑熊妖皇</t>
   </si>
   <si>
@@ -59,6 +77,15 @@
   </si>
   <si>
     <t>经验#200|道行#200|物品#风寂云清,雷极弧光</t>
+  </si>
+  <si>
+    <t>爷们刚想着抢点东西，你就送上门来了。</t>
+  </si>
+  <si>
+    <t>为民除害</t>
+  </si>
+  <si>
+    <t>糟了，遇见了海盗，赶紧逃命</t>
   </si>
   <si>
     <t>赤血鬼猿</t>
@@ -84,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -99,14 +126,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,17 +142,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,23 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,23 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -210,9 +223,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,19 +247,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,43 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,25 +506,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +549,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,19 +1042,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="85" customWidth="1"/>
+    <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,33 +1076,51 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>6600</v>
@@ -1081,18 +1129,27 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>6604</v>
@@ -1101,18 +1158,27 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>6605</v>
@@ -1121,18 +1187,27 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>6603</v>
@@ -1141,10 +1216,19 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
